--- a/doc/regression-test/suites/legacy-security/04-workflow.xlsx
+++ b/doc/regression-test/suites/legacy-security/04-workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Dev\Propel\propel\doc\regression-test\suites\legacy-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76809AE4-840F-4D89-9EF5-99D2B7DA2FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5583EE5C-4D5B-4CC6-AE98-C106D154A24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="04_SpecialConditions" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="159">
   <si>
     <t>Description</t>
   </si>
@@ -108,9 +107,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Not Executed</t>
-  </si>
-  <si>
     <t>Step Details</t>
   </si>
   <si>
@@ -157,12 +153,6 @@
   </si>
   <si>
     <t>Area</t>
-  </si>
-  <si>
-    <t>For the Name field type a name including spaces or any non alphanumeric character.</t>
-  </si>
-  <si>
-    <t>You will see a legend indicating only numbers or letters are allowed.</t>
   </si>
   <si>
     <t>Click the Cancel button</t>
@@ -726,6 +716,16 @@
   </si>
   <si>
     <t>The overal Workflow Execution status is "Cancelled by User".as the same status: "Cancelled by User"</t>
+  </si>
+  <si>
+    <t>You can upload the script successfully. This version of the script has the same second parameter named $Second. But in this case has no default value.</t>
+  </si>
+  <si>
+    <t>At the end of the execution in the Results page you can see the Step 3 finished sucessfully and now in the table of the results you can see a 2nd column named "$Second" that has no value.
+This is no causing issue, because this parametr is not required and can be null or empty.</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
   </si>
 </sst>
 </file>
@@ -1109,563 +1109,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="100">
     <dxf>
       <font>
         <b val="0"/>
@@ -1984,6 +1428,105 @@
       <font>
         <b val="0"/>
         <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -2298,6 +1841,265 @@
       <font>
         <b val="0"/>
         <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -2612,6 +2414,137 @@
       <font>
         <b val="0"/>
         <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -2921,6 +2854,96 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4098,11 +4121,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4408209C-EE48-4EDD-81CA-828422C6913B}" name="Summary" displayName="Summary" ref="A1:B5" totalsRowShown="0" headerRowDxfId="97" headerRowBorderDxfId="96" tableBorderDxfId="95" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4408209C-EE48-4EDD-81CA-828422C6913B}" name="Summary" displayName="Summary" ref="A1:B5" totalsRowShown="0" headerRowDxfId="99" headerRowBorderDxfId="98" tableBorderDxfId="97" totalsRowBorderDxfId="96">
   <autoFilter ref="A1:B5" xr:uid="{4408209C-EE48-4EDD-81CA-828422C6913B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{654C6343-7B3C-42FE-9EF4-7BFE7BE35779}" name="Test Case Sheet name" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{FDA0E746-B4F2-405E-8A1D-9A6A22073CB9}" name="Result" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{654C6343-7B3C-42FE-9EF4-7BFE7BE35779}" name="Test Case Sheet name" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{FDA0E746-B4F2-405E-8A1D-9A6A22073CB9}" name="Result" dataDxfId="94">
       <calculatedColumnFormula array="1">INDIRECT(A2&amp;"!E8")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4111,22 +4134,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{949BDB15-3C75-449C-B4C4-A2C0E485B5C0}" name="SummaryResults" displayName="SummaryResults" ref="D1:E4" totalsRowShown="0" headerRowDxfId="91" headerRowBorderDxfId="90" tableBorderDxfId="89" totalsRowBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{949BDB15-3C75-449C-B4C4-A2C0E485B5C0}" name="SummaryResults" displayName="SummaryResults" ref="D1:E4" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91" totalsRowBorderDxfId="90">
   <autoFilter ref="D1:E4" xr:uid="{949BDB15-3C75-449C-B4C4-A2C0E485B5C0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5420B28C-70A3-47FD-BF8A-F016E4F7FA0F}" name="Summary Results" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{B0E66881-1E02-43BC-AA03-3C33769D1162}" name="Count" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{5420B28C-70A3-47FD-BF8A-F016E4F7FA0F}" name="Summary Results" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{B0E66881-1E02-43BC-AA03-3C33769D1162}" name="Count" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D3E09E6-43C8-4788-BA0E-09F9C445D7D5}" name="SampleTestCase12" displayName="SampleTestCase12" ref="A10:F27" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
-  <autoFilter ref="A10:F27" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D3E09E6-43C8-4788-BA0E-09F9C445D7D5}" name="SampleTestCase12" displayName="SampleTestCase12" ref="A10:F26" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+  <autoFilter ref="A10:F26" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4135,21 +4158,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{28386F51-EA89-4E22-94FE-E643A1522C73}" name="Step#" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{28386F51-EA89-4E22-94FE-E643A1522C73}" name="Step#" dataDxfId="74">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AD88C9C6-DADE-45D0-A01C-3DD953458433}" name="Area" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{B02D9B2C-E852-4462-A564-81E53B5B365B}" name="Step Details" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{CDFDD06A-E36F-4E48-8FBC-00C2BA7A82BE}" name="Expected" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{6A3BB6D8-A91E-4A24-9EE4-7F664D029AC6}" name="Actual" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{965FEC3D-F8DD-479C-99AA-27E03D4F4B08}" name="Status" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{AD88C9C6-DADE-45D0-A01C-3DD953458433}" name="Area" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{B02D9B2C-E852-4462-A564-81E53B5B365B}" name="Step Details" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{CDFDD06A-E36F-4E48-8FBC-00C2BA7A82BE}" name="Expected" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{6A3BB6D8-A91E-4A24-9EE4-7F664D029AC6}" name="Actual" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{965FEC3D-F8DD-479C-99AA-27E03D4F4B08}" name="Status" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E264292B-0439-4307-91B9-FABEAD438F6F}" name="SampleTestCase123" displayName="SampleTestCase123" ref="A10:F30" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E264292B-0439-4307-91B9-FABEAD438F6F}" name="SampleTestCase123" displayName="SampleTestCase123" ref="A10:F30" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <autoFilter ref="A10:F30" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4159,21 +4182,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AA7F9FB9-EB2E-4949-9337-E35889E6536D}" name="Step#" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{AA7F9FB9-EB2E-4949-9337-E35889E6536D}" name="Step#" dataDxfId="53">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8223B210-E99C-444B-8A89-357D65CD5C00}" name="Area" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{B426971A-2942-477B-B310-71C5CB883EDE}" name="Step Details" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{FB4AFFCD-C7A2-46B9-84F9-F72158F907D9}" name="Expected" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{797DADB9-7E15-4D07-83AE-40DA67E0F766}" name="Actual" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{D01CF7E6-82FA-4681-9005-CA4867BF5FB7}" name="Status" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{8223B210-E99C-444B-8A89-357D65CD5C00}" name="Area" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{B426971A-2942-477B-B310-71C5CB883EDE}" name="Step Details" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{FB4AFFCD-C7A2-46B9-84F9-F72158F907D9}" name="Expected" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{797DADB9-7E15-4D07-83AE-40DA67E0F766}" name="Actual" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{D01CF7E6-82FA-4681-9005-CA4867BF5FB7}" name="Status" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{17CE9C6A-170A-4429-AA13-12A20BD06DC0}" name="SampleTestCase1236" displayName="SampleTestCase1236" ref="A10:F46" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{17CE9C6A-170A-4429-AA13-12A20BD06DC0}" name="SampleTestCase1236" displayName="SampleTestCase1236" ref="A10:F46" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A10:F46" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4183,21 +4206,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5965654F-BA5F-46D0-9ECC-7234463ADD30}" name="Step#" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{5965654F-BA5F-46D0-9ECC-7234463ADD30}" name="Step#" dataDxfId="24">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3C24F471-6BF6-4718-BD11-EEB361D3C462}" name="Area" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{63115B35-F0E9-4475-B1AE-118755E689FF}" name="Step Details" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{713C8AD2-E6AB-490A-8074-5B7FABD09EB4}" name="Expected" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{3BBC46A7-A7E4-4DC9-8A04-A389B0115268}" name="Actual" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{1E4B8B17-0564-4E57-BF07-EDB98972C0E1}" name="Status" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{3C24F471-6BF6-4718-BD11-EEB361D3C462}" name="Area" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{63115B35-F0E9-4475-B1AE-118755E689FF}" name="Step Details" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{713C8AD2-E6AB-490A-8074-5B7FABD09EB4}" name="Expected" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{3BBC46A7-A7E4-4DC9-8A04-A389B0115268}" name="Actual" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{1E4B8B17-0564-4E57-BF07-EDB98972C0E1}" name="Status" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{966AEA1C-FD68-44D3-AA32-4F74A8172CE0}" name="SampleTestCase12367" displayName="SampleTestCase12367" ref="A10:F21" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{966AEA1C-FD68-44D3-AA32-4F74A8172CE0}" name="SampleTestCase12367" displayName="SampleTestCase12367" ref="A10:F21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A10:F21" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4207,14 +4230,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{12A0433A-0584-49C6-9580-35451F772C20}" name="Step#" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{12A0433A-0584-49C6-9580-35451F772C20}" name="Step#" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C3E23913-03A2-4DDE-9200-CB1D3F7CAF71}" name="Area" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{C4A460E0-F915-41E8-810D-DD5B5A855970}" name="Step Details" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{2847F570-CF61-45E3-87F8-F3154538850F}" name="Expected" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{A2161717-969C-4221-9C0A-4C279FA74510}" name="Actual" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{2477E087-D513-47DB-BE9A-2B8C05401C37}" name="Status" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{C3E23913-03A2-4DDE-9200-CB1D3F7CAF71}" name="Area" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C4A460E0-F915-41E8-810D-DD5B5A855970}" name="Step Details" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2847F570-CF61-45E3-87F8-F3154538850F}" name="Expected" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A2161717-969C-4221-9C0A-4C279FA74510}" name="Actual" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2477E087-D513-47DB-BE9A-2B8C05401C37}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4485,8 +4508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1510635-E20C-4AD1-9756-3BB17945F573}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4500,28 +4523,28 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">INDIRECT(A2&amp;"!E8")</f>
         <v>Not Executed</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5">
         <f ca="1">COUNTIF(Summary[Result],"Not Executed")</f>
@@ -4530,14 +4553,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDIRECT(A3&amp;"!E8")</f>
         <v>Not Executed</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5">
         <f ca="1">COUNTIF(Summary[Result],"Pass")</f>
@@ -4546,14 +4569,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDIRECT(A4&amp;"!E8")</f>
         <v>Not Executed</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">COUNTIF(Summary[Result],"Fail")</f>
@@ -4562,7 +4585,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDIRECT(A5&amp;"!E8")</f>
@@ -4583,10 +4606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D215E9-B302-441A-A0B0-4EC6D3FC68F0}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4609,7 +4632,7 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -4625,25 +4648,25 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase12[Status], "Not Executed")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="15">
         <f>E5/SUM(E$5:E$7)</f>
@@ -4652,14 +4675,14 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase12[Status], "Pass")</f>
@@ -4672,14 +4695,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <f>COUNTIF(SampleTestCase12[Status], "Fail")</f>
@@ -4695,7 +4718,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="26"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="28" t="str">
         <f>IF(E7&gt;0, "Fail",
@@ -4710,10 +4733,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
@@ -4727,21 +4750,21 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
-        <f t="shared" ref="A11:A27" si="0">IF(ISNUMBER(A10), A10 +1, 1)</f>
+        <f t="shared" ref="A11:A26" si="0">IF(ISNUMBER(A10), A10 +1, 1)</f>
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4750,17 +4773,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4769,36 +4792,36 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4807,74 +4830,74 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="B16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4883,17 +4906,17 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4902,74 +4925,74 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="104" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="104" x14ac:dyDescent="0.35">
@@ -4978,28 +5001,28 @@
         <v>14</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="18" t="s">
         <v>52</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="104" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="52" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -5007,45 +5030,26 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="143" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="143" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5058,34 +5062,44 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="F11:F27">
-    <cfRule type="expression" dxfId="41" priority="4">
+  <conditionalFormatting sqref="F11:F26">
+    <cfRule type="expression" dxfId="87" priority="4">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="86" priority="5">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="85" priority="2">
       <formula>$E$8="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="84" priority="3">
       <formula>$E$8="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:F27">
-    <cfRule type="expression" dxfId="37" priority="7">
+  <conditionalFormatting sqref="A11:F11 B15:F26 B12:F13 A12:A26 F12:F26">
+    <cfRule type="expression" dxfId="83" priority="7">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B27">
-    <cfRule type="expression" dxfId="36" priority="6">
+  <conditionalFormatting sqref="B11:B13 B15:B26">
+    <cfRule type="expression" dxfId="82" priority="6">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B14:F14">
+    <cfRule type="expression" dxfId="81" priority="66">
+      <formula>AND($B14&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="80" priority="69">
+      <formula>AND($B14&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F27" xr:uid="{C73A379B-ADD8-47E3-8CC5-AF4B7F641541}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26" xr:uid="{C73A379B-ADD8-47E3-8CC5-AF4B7F641541}">
       <formula1>"Pass,Fail,Not Executed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5102,7 +5116,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="F11" sqref="F11:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5125,7 +5139,7 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -5141,21 +5155,21 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase123[Status], "Not Executed")</f>
@@ -5168,14 +5182,14 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase123[Status], "Pass")</f>
@@ -5188,14 +5202,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <f>COUNTIF(SampleTestCase123[Status], "Fail")</f>
@@ -5211,7 +5225,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="26"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="28" t="str">
         <f>IF(E7&gt;0, "Fail",
@@ -5226,10 +5240,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
@@ -5247,17 +5261,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5266,17 +5280,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5285,17 +5299,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5304,17 +5318,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5323,17 +5337,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5342,17 +5356,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5361,17 +5375,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5380,17 +5394,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5399,17 +5413,17 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="D19" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5418,17 +5432,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5437,17 +5451,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5456,17 +5470,17 @@
         <v>12</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5475,17 +5489,17 @@
         <v>13</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5494,17 +5508,17 @@
         <v>14</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5513,17 +5527,17 @@
         <v>15</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5532,17 +5546,17 @@
         <v>16</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5551,17 +5565,17 @@
         <v>17</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5570,17 +5584,17 @@
         <v>18</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="104" x14ac:dyDescent="0.35">
@@ -5589,17 +5603,17 @@
         <v>19</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5608,17 +5622,17 @@
         <v>20</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5631,48 +5645,48 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F30">
-    <cfRule type="expression" dxfId="35" priority="7">
+    <cfRule type="expression" dxfId="68" priority="7">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="67" priority="8">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="33" priority="5">
+    <cfRule type="expression" dxfId="66" priority="5">
       <formula>$E$8="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="65" priority="6">
       <formula>$E$8="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:F11 B15:F19 B14:C14 E14:F14 B12:B15 B20:C20 E20:F20 B17:B22 B21:F24 B25:C25 E25:F25 B26:F28 B24:B26 B29:C29 E29:F29 B28:B30 B30:F30 B12:F13 F12:F30 A12:A30">
-    <cfRule type="expression" dxfId="31" priority="10">
+  <conditionalFormatting sqref="A11:F11 B15:F19 B14:C14 E14:F14 B12:B15 B20:C20 E20:F20 B17:B22 B21:F24 B25:C25 E25:F25 B26:F28 B24:B26 B29:C29 E29:F29 B28:B30 B30:F30 B12:F13 A12:A30 F12:F30">
+    <cfRule type="expression" dxfId="64" priority="10">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B30">
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="63" priority="9">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>AND($B14&lt;&gt;$B13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="61" priority="3">
       <formula>AND($B20&lt;&gt;$B19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND($B25&lt;&gt;$B24)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>AND($B29&lt;&gt;$B28)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5694,7 +5708,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F11" sqref="F11:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5717,7 +5731,7 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -5733,21 +5747,21 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase1236[Status], "Not Executed")</f>
@@ -5760,14 +5774,14 @@
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase1236[Status], "Pass")</f>
@@ -5780,14 +5794,14 @@
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <f>COUNTIF(SampleTestCase1236[Status], "Fail")</f>
@@ -5803,7 +5817,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="26"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="28" t="str">
         <f>IF(E7&gt;0, "Fail",
@@ -5818,10 +5832,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
@@ -5839,17 +5853,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5858,17 +5872,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5877,17 +5891,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5896,17 +5910,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5915,17 +5929,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5934,17 +5948,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5953,17 +5967,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5972,17 +5986,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5991,17 +6005,17 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6010,17 +6024,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6029,17 +6043,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6048,17 +6062,17 @@
         <v>12</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6067,36 +6081,36 @@
         <v>13</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="65" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="78" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>100</v>
-      </c>
       <c r="D24" s="10" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6105,17 +6119,17 @@
         <v>15</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6124,17 +6138,17 @@
         <v>16</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6143,17 +6157,17 @@
         <v>17</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6162,17 +6176,17 @@
         <v>18</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6181,17 +6195,17 @@
         <v>19</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="130" x14ac:dyDescent="0.35">
@@ -6200,17 +6214,17 @@
         <v>20</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6219,17 +6233,17 @@
         <v>21</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6238,17 +6252,17 @@
         <v>22</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>115</v>
-      </c>
       <c r="D32" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6257,17 +6271,17 @@
         <v>23</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -6276,17 +6290,17 @@
         <v>24</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6295,17 +6309,17 @@
         <v>25</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6314,17 +6328,17 @@
         <v>26</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6333,17 +6347,17 @@
         <v>27</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6352,17 +6366,17 @@
         <v>28</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -6371,17 +6385,17 @@
         <v>29</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6390,17 +6404,17 @@
         <v>30</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6409,17 +6423,17 @@
         <v>31</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6428,17 +6442,17 @@
         <v>32</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6447,17 +6461,17 @@
         <v>33</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6466,17 +6480,17 @@
         <v>34</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6485,17 +6499,17 @@
         <v>35</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="78" x14ac:dyDescent="0.35">
@@ -6504,17 +6518,17 @@
         <v>36</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C46" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>129</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>132</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6527,88 +6541,88 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F46">
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="47" priority="7">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="45" priority="5">
       <formula>$E$8="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="44" priority="6">
       <formula>$E$8="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:F11 B15:F19 B14:C14 E14:F14 B20:C20 E20:F20 B21:F24 B25:C25 E25:F25 B26:F28 B29:C29 E29:F29 B12:B18 B20:B24 B43:F43 B26:B30 B30:F31 C32:E33 C41:F42 B12:F13 B32:B46 F12:F46 A12:A46">
-    <cfRule type="expression" dxfId="21" priority="10">
+  <conditionalFormatting sqref="A11:F11 B15:F19 B14:C14 E14:F14 B20:C20 E20:F20 B21:F24 B25:C25 E25:F25 B26:F28 B29:C29 E29:F29 B12:B18 B20:B24 B43:F43 B26:B30 B30:F31 C32:E33 C41:F42 B12:F13 B32:B46 A12:A46 F12:F46">
+    <cfRule type="expression" dxfId="43" priority="10">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B46">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>AND($B14&lt;&gt;$B13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>AND($B20&lt;&gt;$B19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND($B25&lt;&gt;$B24)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>AND($B29&lt;&gt;$B28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="15" priority="29">
+    <cfRule type="expression" dxfId="37" priority="29">
       <formula>AND($B39&lt;&gt;$B31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:E39 F38">
-    <cfRule type="expression" dxfId="14" priority="33">
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>AND($B38&lt;&gt;$B31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:E38 F37">
-    <cfRule type="expression" dxfId="13" priority="37">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>AND($B37&lt;&gt;$B31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:E37 F36">
-    <cfRule type="expression" dxfId="12" priority="41">
+    <cfRule type="expression" dxfId="34" priority="41">
       <formula>AND($B36&lt;&gt;$B31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E36 F35">
-    <cfRule type="expression" dxfId="11" priority="45">
+    <cfRule type="expression" dxfId="33" priority="45">
       <formula>AND($B35&lt;&gt;$B31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:E35 F34">
-    <cfRule type="expression" dxfId="10" priority="49">
+    <cfRule type="expression" dxfId="32" priority="49">
       <formula>AND($B34&lt;&gt;$B31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:E34 F32:F33">
-    <cfRule type="expression" dxfId="9" priority="53">
+    <cfRule type="expression" dxfId="31" priority="53">
       <formula>AND($B32&lt;&gt;$B30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F40">
-    <cfRule type="expression" dxfId="8" priority="60">
+    <cfRule type="expression" dxfId="30" priority="60">
       <formula>AND($B40&lt;&gt;$B30)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6629,8 +6643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F494EF-1551-40A5-8DBA-63D5EE5106AF}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6653,7 +6667,7 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -6669,21 +6683,21 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase12367[Status], "Not Executed")</f>
@@ -6699,7 +6713,7 @@
       <c r="B6" s="27"/>
       <c r="C6" s="26"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase12367[Status], "Pass")</f>
@@ -6715,7 +6729,7 @@
       <c r="B7" s="27"/>
       <c r="C7" s="26"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <f>COUNTIF(SampleTestCase12367[Status], "Fail")</f>
@@ -6731,7 +6745,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="26"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="28" t="str">
         <f>IF(E7&gt;0, "Fail",
@@ -6746,10 +6760,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
@@ -6767,17 +6781,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="260" x14ac:dyDescent="0.35">
@@ -6786,17 +6800,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -6805,17 +6819,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6824,17 +6838,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>147</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6843,17 +6857,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -6862,17 +6876,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6881,17 +6895,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6900,17 +6914,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6919,17 +6933,17 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6938,17 +6952,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6957,17 +6971,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6980,38 +6994,38 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F21">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>$E$8="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>$E$8="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:F11 B14:C14 E14:F14 B20:C20 E20:F20 B12:F13 B15:F19 B19:B21 B21:F21 F12:F21 A12:A21">
-    <cfRule type="expression" dxfId="3" priority="10">
+  <conditionalFormatting sqref="A11:F11 B14:C14 E14:F14 B20:C20 E20:F20 B12:F13 B15:F19 B19:B21 B21:F21 A12:A21 F12:F21">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B21">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>AND($B14&lt;&gt;$B13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND($B20&lt;&gt;$B19)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/regression-test/suites/legacy-security/04-workflow.xlsx
+++ b/doc/regression-test/suites/legacy-security/04-workflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Dev\Propel\propel\doc\regression-test\suites\legacy-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5583EE5C-4D5B-4CC6-AE98-C106D154A24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB088DA-ECF9-4042-969C-746E754AFE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -605,6 +605,66 @@
 WHen the execution is done, you must be redirected to the Results page for the execution report.</t>
   </si>
   <si>
+    <t>Review the Execution report</t>
+  </si>
+  <si>
+    <t>Creating and executing a Workflow that generates as huge Payload</t>
+  </si>
+  <si>
+    <t>Cancelling a Workflow execution</t>
+  </si>
+  <si>
+    <t>For the first step all the 30K results need to be there in a paginated Table.   
+For the second step, you need to see a legend saying the maximum quota for the results was exceeded and the data was discarded.</t>
+  </si>
+  <si>
+    <t>You are redirected to the Browse Workflows page where the Workflow TestWorkflowHugeResults is visible in the workflow list.</t>
+  </si>
+  <si>
+    <t>In the Search textbox of the navigation bar type the word "huge" and press enter.</t>
+  </si>
+  <si>
+    <t>Click the Run button at the right of the Workflow name</t>
+  </si>
+  <si>
+    <t>The workflow execution starts</t>
+  </si>
+  <si>
+    <t>As soon the 1st step of the Workflow starts, Press the Black Cancel button located above the Workflow name.</t>
+  </si>
+  <si>
+    <t>As soon the step 1 ends the execution also ends and after a few seonds you are redirected to the results page. Validate the result page results.</t>
+  </si>
+  <si>
+    <t>The overal Workflow Execution status is "Cancelled by User".
+The step 1 was executed successfully, but the step 2 have the status "Cancelled by User"</t>
+  </si>
+  <si>
+    <t>Aborting a Workflow execution</t>
+  </si>
+  <si>
+    <t>As soon the 1st step of the Workflow starts, Press the Red "Kill it!" button located above the Workflow name.</t>
+  </si>
+  <si>
+    <t>A toast indicating the Workflow execution is cancellimng is displayed. Almost immediatelythe execution stops and you are redirected to the Results page</t>
+  </si>
+  <si>
+    <t>Check the execution report</t>
+  </si>
+  <si>
+    <t>The overal Workflow Execution status is "Cancelled by User".as the same status: "Cancelled by User"</t>
+  </si>
+  <si>
+    <t>You can upload the script successfully. This version of the script has the same second parameter named $Second. But in this case has no default value.</t>
+  </si>
+  <si>
+    <t>At the end of the execution in the Results page you can see the Step 3 finished sucessfully and now in the table of the results you can see a 2nd column named "$Second" that has no value.
+This is no causing issue, because this parametr is not required and can be null or empty.</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Create a new Workflow named "TestWorkflowHugeResults" and as descriiption "This workflow Exceeds the maximum data that can be stored in an execution results"
 Add the following steps:
@@ -628,12 +688,13 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">:
- -Name Step 1 30K results
+ -Name: Step 1 5K results
  -Script to execute: TestScript
  -Targets: Select 3 valid targets.
  - Script parameter changes:
     - $ResultType: JSON
-    - $TotalResults: 30000
+    - $TotalResults: 5000
+    - $ShowMessages: $false
 </t>
     </r>
     <r>
@@ -654,78 +715,19 @@
         <family val="2"/>
       </rPr>
       <t>:
- -Name Step 2 50K results
+ -Name: Step 2 20K results
  -Script to execute: TestScript
  -Targets: Select 3 valid targets.
  - Script parameter changes:
     - $ResultType: JSON
-    - $TotalResults: 50000
+    - $TotalResults: 20000
+    - $ShowMessages: $false
 Then click the Save &amp; Run button</t>
     </r>
   </si>
   <si>
-    <t>Review the Execution report</t>
-  </si>
-  <si>
-    <t>Creating and executing a Workflow that generates as huge Payload</t>
-  </si>
-  <si>
-    <t>Cancelling a Workflow execution</t>
-  </si>
-  <si>
-    <t>For the first step all the 30K results need to be there in a paginated Table.   
-For the second step, you need to see a legend saying the maximum quota for the results was exceeded and the data was discarded.</t>
-  </si>
-  <si>
-    <t>You are redirected to the Browse Workflows page where the Workflow TestWorkflowHugeResults is visible in the workflow list.</t>
-  </si>
-  <si>
-    <t>In the Search textbox of the navigation bar type the word "huge" and press enter.</t>
-  </si>
-  <si>
-    <t>Click the Run button at the right of the Workflow name</t>
-  </si>
-  <si>
-    <t>The workflow execution starts</t>
-  </si>
-  <si>
-    <t>As soon the 1st step of the Workflow starts, Press the Black Cancel button located above the Workflow name.</t>
-  </si>
-  <si>
-    <t>As soon the step 1 ends the execution also ends and after a few seonds you are redirected to the results page. Validate the result page results.</t>
-  </si>
-  <si>
-    <t>The overal Workflow Execution status is "Cancelled by User".
-The step 1 was executed successfully, but the step 2 have the status "Cancelled by User"</t>
-  </si>
-  <si>
-    <t>Aborting a Workflow execution</t>
-  </si>
-  <si>
-    <t>As soon the 1st step of the Workflow starts, Press the Red "Kill it!" button located above the Workflow name.</t>
-  </si>
-  <si>
-    <t>A toast indicating the Workflow execution is cancellimng is displayed. The Cancel button change his label to "Cancellation in progress…".
+    <t>A toast indicating the Workflow execution is cancelling is displayed. The Cancel button change his label to "Cancellation in progress…".
 Both Cancel and KillIt! Buttons are now disabled.</t>
-  </si>
-  <si>
-    <t>A toast indicating the Workflow execution is cancellimng is displayed. Almost immediatelythe execution stops and you are redirected to the Results page</t>
-  </si>
-  <si>
-    <t>Check the execution report</t>
-  </si>
-  <si>
-    <t>The overal Workflow Execution status is "Cancelled by User".as the same status: "Cancelled by User"</t>
-  </si>
-  <si>
-    <t>You can upload the script successfully. This version of the script has the same second parameter named $Second. But in this case has no default value.</t>
-  </si>
-  <si>
-    <t>At the end of the execution in the Results page you can see the Step 3 finished sucessfully and now in the table of the results you can see a 2nd column named "$Second" that has no value.
-This is no causing issue, because this parametr is not required and can be null or empty.</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
   </si>
 </sst>
 </file>
@@ -4508,7 +4510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1510635-E20C-4AD1-9756-3BB17945F573}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4764,7 +4766,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4783,7 +4785,7 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4802,7 +4804,7 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4821,7 +4823,7 @@
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4840,7 +4842,7 @@
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4859,7 +4861,7 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4878,7 +4880,7 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4897,7 +4899,7 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4916,7 +4918,7 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4935,7 +4937,7 @@
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4954,7 +4956,7 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4973,7 +4975,7 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="104" x14ac:dyDescent="0.35">
@@ -4992,7 +4994,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="104" x14ac:dyDescent="0.35">
@@ -5011,7 +5013,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5030,7 +5032,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="143" x14ac:dyDescent="0.35">
@@ -5049,7 +5051,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5271,7 +5273,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5290,7 +5292,7 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5309,7 +5311,7 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5328,7 +5330,7 @@
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5347,7 +5349,7 @@
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5366,7 +5368,7 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5385,7 +5387,7 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5404,7 +5406,7 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5423,7 +5425,7 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5442,7 +5444,7 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5461,7 +5463,7 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5480,7 +5482,7 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5499,7 +5501,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5518,7 +5520,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5537,7 +5539,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5556,7 +5558,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5575,7 +5577,7 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5594,7 +5596,7 @@
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="104" x14ac:dyDescent="0.35">
@@ -5613,7 +5615,7 @@
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5632,7 +5634,7 @@
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5863,7 +5865,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5882,7 +5884,7 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5901,7 +5903,7 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5920,7 +5922,7 @@
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5939,7 +5941,7 @@
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5958,7 +5960,7 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5977,7 +5979,7 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5996,7 +5998,7 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6015,7 +6017,7 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6034,7 +6036,7 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6053,7 +6055,7 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6068,11 +6070,11 @@
         <v>96</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6091,7 +6093,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="78" x14ac:dyDescent="0.35">
@@ -6106,11 +6108,11 @@
         <v>97</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6129,7 +6131,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6148,7 +6150,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6167,7 +6169,7 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6186,7 +6188,7 @@
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6205,7 +6207,7 @@
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="130" x14ac:dyDescent="0.35">
@@ -6224,7 +6226,7 @@
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6243,7 +6245,7 @@
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6262,7 +6264,7 @@
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6281,7 +6283,7 @@
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -6300,7 +6302,7 @@
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6319,7 +6321,7 @@
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6338,7 +6340,7 @@
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6357,7 +6359,7 @@
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6376,7 +6378,7 @@
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -6395,7 +6397,7 @@
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6414,7 +6416,7 @@
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6433,7 +6435,7 @@
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6452,7 +6454,7 @@
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6471,7 +6473,7 @@
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6490,7 +6492,7 @@
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6509,7 +6511,7 @@
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="78" x14ac:dyDescent="0.35">
@@ -6528,7 +6530,7 @@
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6643,8 +6645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F494EF-1551-40A5-8DBA-63D5EE5106AF}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6781,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>19</v>
@@ -6791,26 +6793,26 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="260" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="286" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>137</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -6819,17 +6821,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6838,17 +6840,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6857,17 +6859,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -6876,17 +6878,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6895,17 +6897,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6914,17 +6916,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6933,17 +6935,17 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6952,17 +6954,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="D20" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6971,17 +6973,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/doc/regression-test/suites/legacy-security/04-workflow.xlsx
+++ b/doc/regression-test/suites/legacy-security/04-workflow.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Dev\Propel\propel\doc\regression-test\suites\legacy-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F88A9E-B970-4063-BC34-2E19DF1329F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232CB801-B352-4E00-A820-6B7FB5238E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="675" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="01_Creation" sheetId="3" r:id="rId2"/>
     <sheet name="02_UpdateSteps" sheetId="10" r:id="rId3"/>
     <sheet name="03_ScriptChanges" sheetId="11" r:id="rId4"/>
-    <sheet name="04_SpecialConditions" sheetId="12" r:id="rId5"/>
+    <sheet name="04_RuntimeParameters" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="150">
   <si>
     <t>Description</t>
   </si>
@@ -575,9 +575,6 @@
     <t>03_ScriptChanges</t>
   </si>
   <si>
-    <t>04_SpecialConditions</t>
-  </si>
-  <si>
     <t>Testing Workflow creation and execution</t>
   </si>
   <si>
@@ -585,61 +582,6 @@
   </si>
   <si>
     <t>Reaction of a workflow to script changes.</t>
-  </si>
-  <si>
-    <t>Special conditions for a Workflow execution.</t>
-  </si>
-  <si>
-    <t>The workfow is created and you are redirected to the Run page. This Workflows is going to take some time to complete, so, be patient.
-In the console log of the Run page you will start seeing some entries with the legend "Receiving data…" related to the STDOUT chunks of data received from the servers.
-WHen the execution is done, you must be redirected to the Results page for the execution report.</t>
-  </si>
-  <si>
-    <t>Review the Execution report</t>
-  </si>
-  <si>
-    <t>Cancelling a Workflow execution</t>
-  </si>
-  <si>
-    <t>For the first step all the 30K results need to be there in a paginated Table.   
-For the second step, you need to see a legend saying the maximum quota for the results was exceeded and the data was discarded.</t>
-  </si>
-  <si>
-    <t>You are redirected to the Browse Workflows page where the Workflow TestWorkflowHugeResults is visible in the workflow list.</t>
-  </si>
-  <si>
-    <t>In the Search textbox of the navigation bar type the word "huge" and press enter.</t>
-  </si>
-  <si>
-    <t>Click the Run button at the right of the Workflow name</t>
-  </si>
-  <si>
-    <t>The workflow execution starts</t>
-  </si>
-  <si>
-    <t>As soon the 1st step of the Workflow starts, Press the Black Cancel button located above the Workflow name.</t>
-  </si>
-  <si>
-    <t>As soon the step 1 ends the execution also ends and after a few seonds you are redirected to the results page. Validate the result page results.</t>
-  </si>
-  <si>
-    <t>The overal Workflow Execution status is "Cancelled by User".
-The step 1 was executed successfully, but the step 2 have the status "Cancelled by User"</t>
-  </si>
-  <si>
-    <t>Aborting a Workflow execution</t>
-  </si>
-  <si>
-    <t>As soon the 1st step of the Workflow starts, Press the Red "Kill it!" button located above the Workflow name.</t>
-  </si>
-  <si>
-    <t>A toast indicating the Workflow execution is cancellimng is displayed. Almost immediatelythe execution stops and you are redirected to the Results page</t>
-  </si>
-  <si>
-    <t>Check the execution report</t>
-  </si>
-  <si>
-    <t>The overal Workflow Execution status is "Cancelled by User".as the same status: "Cancelled by User"</t>
   </si>
   <si>
     <t>You can upload the script successfully. This version of the script has the same second parameter named $Second. But in this case has no default value.</t>
@@ -649,13 +591,6 @@
 This is no causing issue, because this parametr is not required and can be null or empty.</t>
   </si>
   <si>
-    <t>A toast indicating the Workflow execution is cancelling is displayed. The Cancel button change his label to "Cancellation in progress…".
-Both Cancel and KillIt! Buttons are now disabled.</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Click in the More link in the navigation bar. In the expanded menu click on the Create a Workflow option.</t>
   </si>
   <si>
@@ -666,11 +601,20 @@
     <t>Click the save button</t>
   </si>
   <si>
-    <t>Creating and executing a Workflow that generates a huge Payload</t>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>Creating the workflow</t>
+  </si>
+  <si>
+    <t>04_RuntimeParameters</t>
+  </si>
+  <si>
+    <t>Test a workflow that have some parameters defined as "Runtime parameters" allowing the user to change his value right before the workflow is executed.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Create a new Workflow named "TestWorkflowHugeResults" and as description "This workflow Exceeds the maximum data that can be stored in an execution results"
+      <t xml:space="preserve">Create a new Workflow named "TestWorkflowWithRPs" and as description "This workflow contains runtime parameters."
 Add the following steps:
 </t>
     </r>
@@ -691,43 +635,57 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:
- -Name: Step 1 5K results
+      <t>:
+ -Name: Step 1 with 1 RP
  -Script to execute: TestScript
- -Targets: Select 3 valid targets.
+ -Targets: Select 1 valid target.
  - Script parameter changes:
-    - $ShowMessages: $false
     - $ResultType: JSON
-    - $TotalResults: 5000
+    - $TotalResults: 30
+Also for the $TotalResults parameter, click in the checkbox at the right of the parameter name to run it into a runtime parameter. Click the save button to save your changes.</t>
+    </r>
+  </si>
+  <si>
+    <t>The changes in the steps are savedd and now you can see a step named "Step 1 with 1 RP" in the step list of the Workflow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the "Add Step button to add a new step named "Step 2 with 2 rps", also select the script "TestSCript" and a valid target. 
+Then make the following changes to the parameters:
+ -$ThrowError: Keep the value in $false, but click the checkbox right to the parameter name to turn it into a runtime parameter.
+ - $TotalResults change the value to 100 and convert it also into a runtime parameter.
+ - $ResultType change the value to "Json"
+Click the Save button </t>
+  </si>
+  <si>
+    <t>Now both steps are listed in the steps section of the workflow.</t>
+  </si>
+  <si>
+    <t>Executing the workflow</t>
+  </si>
+  <si>
+    <t>Click the "Save and Run" button for the workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will be redirected to the run page. The legend "This workflow has some runtime parameters defined." will be displayed and ypu will be able to edit the 3 runtime parameters. 
+$TotalResults in 1st step $ThrowError and $TotalResults in the 2nd step.
+They must be displayed with the following values:
+- 1st step:
+   -$TotalResults: 30
+- 2nd step:
+   -$ThrowErrror: $false
+   -$TotalResults: 100
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2nd step</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>:
- -Name: Step 2 20K results
- -Script to execute: TestScript
- -Targets: Select 3 valid targets.
- - Script parameter changes:
-    - $ShowMessages: $false
-    - $ResultType: JSON
-    - $TotalResults: 20000
-Then click the Save &amp; Run button</t>
-    </r>
+  </si>
+  <si>
+    <t>Make the following changes to the Runtime Parameters:
+ - At 1st step ste the value of $TotalResults to 15.
+ - At 2nd step set the value of $ThrowErrors to $true.
+After made those changes click the "Run" button and confirm the execution.</t>
+  </si>
+  <si>
+    <t>The workflow execution starts and finished with error status.
+The first step must be finished successfully and deliver 15 rows of results.
+The second step should be finished with error and the error details must show the following message: "This error is from the script!"</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1086,12 +1044,6 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1112,6 +1064,274 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="80">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1826F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1428,73 +1648,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1811,73 +1964,6 @@
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -2190,73 +2276,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2568,73 +2587,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1826F"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3100,10 +3052,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3839,7 +3791,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D3E09E6-43C8-4788-BA0E-09F9C445D7D5}" name="SampleTestCase12" displayName="SampleTestCase12" ref="A10:F26" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D3E09E6-43C8-4788-BA0E-09F9C445D7D5}" name="SampleTestCase12" displayName="SampleTestCase12" ref="A10:F26" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="A10:F26" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3849,21 +3801,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{28386F51-EA89-4E22-94FE-E643A1522C73}" name="Step#" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{28386F51-EA89-4E22-94FE-E643A1522C73}" name="Step#" dataDxfId="62">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AD88C9C6-DADE-45D0-A01C-3DD953458433}" name="Area" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{B02D9B2C-E852-4462-A564-81E53B5B365B}" name="Step Details" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{CDFDD06A-E36F-4E48-8FBC-00C2BA7A82BE}" name="Expected" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{6A3BB6D8-A91E-4A24-9EE4-7F664D029AC6}" name="Actual" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{965FEC3D-F8DD-479C-99AA-27E03D4F4B08}" name="Status" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{AD88C9C6-DADE-45D0-A01C-3DD953458433}" name="Area" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{B02D9B2C-E852-4462-A564-81E53B5B365B}" name="Step Details" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{CDFDD06A-E36F-4E48-8FBC-00C2BA7A82BE}" name="Expected" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{6A3BB6D8-A91E-4A24-9EE4-7F664D029AC6}" name="Actual" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{965FEC3D-F8DD-479C-99AA-27E03D4F4B08}" name="Status" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E264292B-0439-4307-91B9-FABEAD438F6F}" name="SampleTestCase123" displayName="SampleTestCase123" ref="A10:F30" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E264292B-0439-4307-91B9-FABEAD438F6F}" name="SampleTestCase123" displayName="SampleTestCase123" ref="A10:F30" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="A10:F30" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3873,21 +3825,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AA7F9FB9-EB2E-4949-9337-E35889E6536D}" name="Step#" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{AA7F9FB9-EB2E-4949-9337-E35889E6536D}" name="Step#" dataDxfId="51">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8223B210-E99C-444B-8A89-357D65CD5C00}" name="Area" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{B426971A-2942-477B-B310-71C5CB883EDE}" name="Step Details" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{FB4AFFCD-C7A2-46B9-84F9-F72158F907D9}" name="Expected" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{797DADB9-7E15-4D07-83AE-40DA67E0F766}" name="Actual" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{D01CF7E6-82FA-4681-9005-CA4867BF5FB7}" name="Status" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{8223B210-E99C-444B-8A89-357D65CD5C00}" name="Area" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{B426971A-2942-477B-B310-71C5CB883EDE}" name="Step Details" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{FB4AFFCD-C7A2-46B9-84F9-F72158F907D9}" name="Expected" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{797DADB9-7E15-4D07-83AE-40DA67E0F766}" name="Actual" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{D01CF7E6-82FA-4681-9005-CA4867BF5FB7}" name="Status" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{17CE9C6A-170A-4429-AA13-12A20BD06DC0}" name="SampleTestCase1236" displayName="SampleTestCase1236" ref="A10:F46" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{17CE9C6A-170A-4429-AA13-12A20BD06DC0}" name="SampleTestCase1236" displayName="SampleTestCase1236" ref="A10:F46" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="A10:F46" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3897,22 +3849,22 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5965654F-BA5F-46D0-9ECC-7234463ADD30}" name="Step#" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{5965654F-BA5F-46D0-9ECC-7234463ADD30}" name="Step#" dataDxfId="40">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3C24F471-6BF6-4718-BD11-EEB361D3C462}" name="Area" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{63115B35-F0E9-4475-B1AE-118755E689FF}" name="Step Details" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{713C8AD2-E6AB-490A-8074-5B7FABD09EB4}" name="Expected" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{3BBC46A7-A7E4-4DC9-8A04-A389B0115268}" name="Actual" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{1E4B8B17-0564-4E57-BF07-EDB98972C0E1}" name="Status" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{3C24F471-6BF6-4718-BD11-EEB361D3C462}" name="Area" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{63115B35-F0E9-4475-B1AE-118755E689FF}" name="Step Details" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{713C8AD2-E6AB-490A-8074-5B7FABD09EB4}" name="Expected" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{3BBC46A7-A7E4-4DC9-8A04-A389B0115268}" name="Actual" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{1E4B8B17-0564-4E57-BF07-EDB98972C0E1}" name="Status" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{966AEA1C-FD68-44D3-AA32-4F74A8172CE0}" name="SampleTestCase12367" displayName="SampleTestCase12367" ref="A10:F21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A10:F21" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{966AEA1C-FD68-44D3-AA32-4F74A8172CE0}" name="SampleTestCase12367" displayName="SampleTestCase12367" ref="A10:F15" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="A10:F15" xr:uid="{5E4571F6-B23A-41AD-A10C-A2AD2284AD4B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3921,14 +3873,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{12A0433A-0584-49C6-9580-35451F772C20}" name="Step#" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{12A0433A-0584-49C6-9580-35451F772C20}" name="Step#" dataDxfId="29">
       <calculatedColumnFormula>IF(ISNUMBER(A10), A10 +1, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C3E23913-03A2-4DDE-9200-CB1D3F7CAF71}" name="Area" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C4A460E0-F915-41E8-810D-DD5B5A855970}" name="Step Details" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2847F570-CF61-45E3-87F8-F3154538850F}" name="Expected" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{A2161717-969C-4221-9C0A-4C279FA74510}" name="Actual" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{2477E087-D513-47DB-BE9A-2B8C05401C37}" name="Status" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{C3E23913-03A2-4DDE-9200-CB1D3F7CAF71}" name="Area" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{C4A460E0-F915-41E8-810D-DD5B5A855970}" name="Step Details" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{2847F570-CF61-45E3-87F8-F3154538850F}" name="Expected" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{A2161717-969C-4221-9C0A-4C279FA74510}" name="Actual" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{2477E087-D513-47DB-BE9A-2B8C05401C37}" name="Status" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4197,10 +4149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1510635-E20C-4AD1-9756-3BB17945F573}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4232,14 +4184,14 @@
       </c>
       <c r="B2" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">INDIRECT(A2&amp;"!E8")</f>
-        <v>Pass</v>
+        <v>Not Executed</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="5">
         <f ca="1">COUNTIF(Summary[Result],"Not Executed")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4248,14 +4200,14 @@
       </c>
       <c r="B3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDIRECT(A3&amp;"!E8")</f>
-        <v>Pass</v>
+        <v>Not Executed</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5">
         <f ca="1">COUNTIF(Summary[Result],"Pass")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -4264,7 +4216,7 @@
       </c>
       <c r="B4" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDIRECT(A4&amp;"!E8")</f>
-        <v>Pass</v>
+        <v>Not Executed</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4276,13 +4228,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B5" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDIRECT(A5&amp;"!E8")</f>
-        <v>Pass</v>
-      </c>
-    </row>
+        <v>Not Executed</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4299,8 +4252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D215E9-B302-441A-A0B0-4EC6D3FC68F0}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F26"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4322,14 +4275,14 @@
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4348,50 +4301,50 @@
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase12[Status], "Not Executed")</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F5" s="15">
         <f>E5/SUM(E$5:E$7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase12[Status], "Pass")</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15">
         <f>E6/SUM(E$5:E$7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4406,17 +4359,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="26" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
-        <v>Pass</v>
-      </c>
-      <c r="F8" s="28"/>
+        <v>Not Executed</v>
+      </c>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -4455,7 +4408,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4467,14 +4420,14 @@
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4493,7 +4446,7 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4512,7 +4465,7 @@
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4523,7 +4476,7 @@
       <c r="B15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -4531,7 +4484,7 @@
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4550,7 +4503,7 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4562,14 +4515,14 @@
         <v>49</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4580,7 +4533,7 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -4588,7 +4541,7 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4599,7 +4552,7 @@
       <c r="B19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -4607,7 +4560,7 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4626,7 +4579,7 @@
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4645,7 +4598,7 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4657,14 +4610,14 @@
         <v>49</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="104" x14ac:dyDescent="0.35">
@@ -4683,7 +4636,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="104" x14ac:dyDescent="0.35">
@@ -4694,7 +4647,7 @@
       <c r="B24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -4702,7 +4655,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4721,7 +4674,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="143" x14ac:dyDescent="0.35">
@@ -4740,7 +4693,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4753,30 +4706,30 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="F11:F26">
-    <cfRule type="expression" dxfId="67" priority="4">
-      <formula>$F11="Fail"</formula>
+  <conditionalFormatting sqref="A11:E26">
+    <cfRule type="expression" dxfId="23" priority="66">
+      <formula>AND($B11&lt;&gt;#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="5">
-      <formula>$F11="Pass"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B26">
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$E$8="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>$E$8="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B26">
-    <cfRule type="expression" dxfId="63" priority="6">
-      <formula>AND($B11&lt;&gt;$B10)</formula>
+  <conditionalFormatting sqref="F11:F26">
+    <cfRule type="expression" dxfId="19" priority="4">
+      <formula>$F11="Fail"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:E26">
-    <cfRule type="expression" dxfId="62" priority="66">
-      <formula>AND($B11&lt;&gt;#REF!)</formula>
+    <cfRule type="expression" dxfId="18" priority="5">
+      <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4796,8 +4749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222FE036-F6CB-4D51-840C-B64B15135E7F}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F30"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4819,14 +4772,14 @@
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4845,50 +4798,50 @@
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase123[Status], "Not Executed")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="15">
         <f>E5/SUM(E$5:E$7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase123[Status], "Pass")</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15">
         <f>E6/SUM(E$5:E$7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4903,17 +4856,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="26" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
-        <v>Pass</v>
-      </c>
-      <c r="F8" s="28"/>
+        <v>Not Executed</v>
+      </c>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -4952,7 +4905,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4971,7 +4924,7 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4982,7 +4935,7 @@
       <c r="B13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -4990,7 +4943,7 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5001,7 +4954,7 @@
       <c r="B14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -5009,7 +4962,7 @@
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5020,7 +4973,7 @@
       <c r="B15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -5028,7 +4981,7 @@
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5039,7 +4992,7 @@
       <c r="B16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -5047,7 +5000,7 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5066,7 +5019,7 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5085,7 +5038,7 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5096,7 +5049,7 @@
       <c r="B19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -5104,7 +5057,7 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5115,7 +5068,7 @@
       <c r="B20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -5123,7 +5076,7 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5134,7 +5087,7 @@
       <c r="B21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -5142,7 +5095,7 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5161,7 +5114,7 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5172,7 +5125,7 @@
       <c r="B23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -5180,7 +5133,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5191,7 +5144,7 @@
       <c r="B24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -5199,7 +5152,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5210,7 +5163,7 @@
       <c r="B25" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -5218,7 +5171,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5229,7 +5182,7 @@
       <c r="B26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -5237,7 +5190,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5248,7 +5201,7 @@
       <c r="B27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -5256,7 +5209,7 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5275,7 +5228,7 @@
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="104" x14ac:dyDescent="0.35">
@@ -5294,7 +5247,7 @@
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5313,7 +5266,7 @@
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5325,30 +5278,30 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11:F30">
-    <cfRule type="expression" dxfId="50" priority="7">
-      <formula>$F11="Fail"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="8">
-      <formula>$F11="Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="48" priority="5">
-      <formula>$E$8="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="6">
-      <formula>$E$8="Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11:E30">
-    <cfRule type="expression" dxfId="46" priority="10">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B30">
-    <cfRule type="expression" dxfId="45" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>AND($B10&lt;&gt;$B9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="15" priority="5">
+      <formula>$E$8="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="6">
+      <formula>$E$8="Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F30">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>$F11="Fail"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5368,8 +5321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA7B3BB-D245-4B5C-9618-D944ABDDEF69}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F46"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5391,14 +5344,14 @@
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -5417,50 +5370,50 @@
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase1236[Status], "Not Executed")</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F5" s="15">
         <f>E5/SUM(E$5:E$7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase1236[Status], "Pass")</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15">
         <f>E6/SUM(E$5:E$7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5475,17 +5428,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="26" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
-        <v>Pass</v>
-      </c>
-      <c r="F8" s="28"/>
+        <v>Not Executed</v>
+      </c>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -5524,7 +5477,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5543,7 +5496,7 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5554,7 +5507,7 @@
       <c r="B13" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -5562,7 +5515,7 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5573,7 +5526,7 @@
       <c r="B14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -5581,7 +5534,7 @@
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5592,7 +5545,7 @@
       <c r="B15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -5600,7 +5553,7 @@
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5611,7 +5564,7 @@
       <c r="B16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -5619,7 +5572,7 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5638,7 +5591,7 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5657,7 +5610,7 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5668,7 +5621,7 @@
       <c r="B19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="18" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -5676,7 +5629,7 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5687,7 +5640,7 @@
       <c r="B20" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -5695,7 +5648,7 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5706,7 +5659,7 @@
       <c r="B21" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -5714,7 +5667,7 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5729,11 +5682,11 @@
         <v>93</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5744,7 +5697,7 @@
       <c r="B23" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -5752,7 +5705,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="78" x14ac:dyDescent="0.35">
@@ -5763,15 +5716,15 @@
       <c r="B24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="18" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5782,7 +5735,7 @@
       <c r="B25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="18" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -5790,7 +5743,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5801,7 +5754,7 @@
       <c r="B26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -5809,7 +5762,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5820,7 +5773,7 @@
       <c r="B27" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -5828,7 +5781,7 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -5847,7 +5800,7 @@
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5866,7 +5819,7 @@
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="130" x14ac:dyDescent="0.35">
@@ -5885,7 +5838,7 @@
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -5904,7 +5857,7 @@
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5923,7 +5876,7 @@
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5934,7 +5887,7 @@
       <c r="B33" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -5942,7 +5895,7 @@
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -5953,7 +5906,7 @@
       <c r="B34" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="18" t="s">
         <v>113</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -5961,7 +5914,7 @@
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5972,7 +5925,7 @@
       <c r="B35" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="18" t="s">
         <v>115</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -5980,7 +5933,7 @@
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -5991,7 +5944,7 @@
       <c r="B36" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="18" t="s">
         <v>117</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -5999,7 +5952,7 @@
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -6010,7 +5963,7 @@
       <c r="B37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -6018,7 +5971,7 @@
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6029,7 +5982,7 @@
       <c r="B38" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -6037,7 +5990,7 @@
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -6048,7 +6001,7 @@
       <c r="B39" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -6056,7 +6009,7 @@
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6075,7 +6028,7 @@
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6094,7 +6047,7 @@
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6113,7 +6066,7 @@
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6132,7 +6085,7 @@
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6151,7 +6104,7 @@
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6170,7 +6123,7 @@
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="78" x14ac:dyDescent="0.35">
@@ -6189,7 +6142,7 @@
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -6201,30 +6154,30 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11:F46">
-    <cfRule type="expression" dxfId="33" priority="7">
-      <formula>$F11="Fail"</formula>
+  <conditionalFormatting sqref="A11:E46">
+    <cfRule type="expression" dxfId="11" priority="53">
+      <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="8">
-      <formula>$F11="Pass"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B46">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>AND($B11&lt;&gt;$B10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$E$8="Pass"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$E$8="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B46">
-    <cfRule type="expression" dxfId="29" priority="9">
-      <formula>AND($B11&lt;&gt;$B10)</formula>
+  <conditionalFormatting sqref="F11:F46">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$F11="Fail"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:E46">
-    <cfRule type="expression" dxfId="28" priority="53">
-      <formula>AND($B11&lt;&gt;$B10)</formula>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6242,10 +6195,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F494EF-1551-40A5-8DBA-63D5EE5106AF}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6267,14 +6220,14 @@
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -6293,42 +6246,42 @@
       <c r="A5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="5">
         <f>COUNTIF(SampleTestCase12367[Status], "Not Executed")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="15">
         <f>E5/SUM(E$5:E$7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>COUNTIF(SampleTestCase12367[Status], "Pass")</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15">
         <f>E6/SUM(E$5:E$7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -6343,17 +6296,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="26" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
-        <v>Pass</v>
-      </c>
-      <c r="F8" s="28"/>
+        <v>Not Executed</v>
+      </c>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -6376,13 +6329,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
-        <f t="shared" ref="A11:A21" si="0">IF(ISNUMBER(A10), A10 +1, 1)</f>
+        <f t="shared" ref="A11:A15" si="0">IF(ISNUMBER(A10), A10 +1, 1)</f>
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>19</v>
@@ -6392,197 +6345,83 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="286" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="195" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="65" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="156" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="182" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="104" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="65" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="52" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="52" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -6594,34 +6433,34 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11:F21">
-    <cfRule type="expression" dxfId="16" priority="7">
+  <conditionalFormatting sqref="A11:E15">
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula>AND($B11&lt;&gt;$B10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B15">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>AND($B11&lt;&gt;$B10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$E$8="Pass"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$E$8="Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F15">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$F11="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$F11="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="14" priority="5">
-      <formula>$E$8="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
-      <formula>$E$8="Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:E21">
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>AND($B11&lt;&gt;$B10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B21">
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>AND($B11&lt;&gt;$B10)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F21" xr:uid="{1ABF78D5-22AE-4168-98B6-9889E5A6ADC7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F15" xr:uid="{1ABF78D5-22AE-4168-98B6-9889E5A6ADC7}">
       <formula1>"Pass,Fail,Not Executed"</formula1>
     </dataValidation>
   </dataValidations>
